--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3267267.880005881</v>
+        <v>3264695.925487975</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,16 +713,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>204.4344077697701</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>309.7029429582356</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>192.5627265154904</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>123.2264323245079</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>75.1365194952145</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>52.17142175228584</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>189.5968436493442</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>220.9109866599767</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448612</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>148.3681250208883</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.6638564154457</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>133.4548648132226</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>194.9085394018862</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0404882242259</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>252.5895617850416</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>126.9927435506632</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>7.61374123523283</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412178</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532351</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>48.85497112745762</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>28.75188085812055</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>9.146142788179874</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>924.4350995402963</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>555.4725825998845</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>555.4725825998845</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2040.808845047302</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1688.040189777188</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1314.574431516108</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y2" t="n">
-        <v>924.4350995402963</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,16 +4407,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V4" t="n">
-        <v>533.621179645333</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W4" t="n">
-        <v>533.621179645333</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X4" t="n">
-        <v>533.621179645333</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>533.621179645333</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>554.3221432721089</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C5" t="n">
-        <v>185.3596263316971</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D5" t="n">
-        <v>185.3596263316971</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>185.3596263316971</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>178.4141255824937</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="X5" t="n">
-        <v>1331.061315312042</v>
+        <v>2136.285654263387</v>
       </c>
       <c r="Y5" t="n">
-        <v>940.9219833362306</v>
+        <v>1746.146322287575</v>
       </c>
     </row>
     <row r="6">
@@ -4635,34 +4635,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785276</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>559.1928012785276</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>411.2797076961344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>264.3897601982241</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,7 +4732,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
         <v>529.6040388502502</v>
@@ -4741,34 +4741,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>228.2778626358873</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="C8" t="n">
-        <v>228.2778626358873</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>228.2778626358873</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>228.2778626358873</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,7 +4817,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2316.076120912494</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2062.314335550585</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>1731.251448207015</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>1378.482792936901</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X8" t="n">
-        <v>1005.017034675821</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y8" t="n">
-        <v>614.8777027000092</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="9">
@@ -4893,13 +4893,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036446</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>409.5384547146244</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064346</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,25 +5036,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5121,25 +5121,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2495.978408795858</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004712</v>
@@ -5264,19 +5264,19 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5288,13 +5288,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5309,19 +5309,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5364,13 +5364,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2222.001901828445</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.7772127656159</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>782.841029837709</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1361.415228493873</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1133.425677595856</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5504,34 +5504,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>251.5626541092265</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>746.8882603249853</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951537</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5750,7 +5750,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075809</v>
@@ -5759,13 +5759,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5832,22 +5832,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452613</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,16 +5999,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6315,13 +6315,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6461,13 +6461,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.55866301478</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6546,22 +6546,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>427.7414352191925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>746.8882603249857</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1344.266747951538</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D34" t="n">
-        <v>317.6151975578602</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E34" t="n">
-        <v>317.6151975578602</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>697.5276345711973</v>
       </c>
     </row>
     <row r="35">
@@ -6917,46 +6917,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>746.8882603249857</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951538</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>606.6423399580283</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>459.7523924601179</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7190,7 +7190,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,22 +7309,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>513.8536007400712</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>366.9636532421608</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7421,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>150.8995423128888</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>484.8243144841094</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>980.1499206998682</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1577.52840832642</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8536007400717</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452613</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718132</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876693</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597624</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317909</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711643</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783517</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8462,7 +8462,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119839</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451758</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747117</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.20633287440191</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>33.93343655154939</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>121.5862749664513</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.005313310876971</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903373</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>116.6691671648112</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>119.8635921600918</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>139.4693302300325</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="C2" t="n">
         <v>718411.5486312478</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312476</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287549</v>
+      </c>
+      <c r="F2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="F2" t="n">
-        <v>706253.2747287551</v>
-      </c>
       <c r="G2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="H2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="I2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="J2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="K2" t="n">
         <v>706253.2747287554</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.274728755</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287556</v>
       </c>
       <c r="L2" t="n">
         <v>706253.2747287552</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="N2" t="n">
         <v>706253.2747287555</v>
@@ -26353,7 +26353,7 @@
         <v>706253.2747287552</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577088</v>
+        <v>944372.7777577087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080583</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670416</v>
+        <v>5067.592601670445</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670424</v>
+        <v>5067.59260167046</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670444</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="H4" t="n">
+        <v>5067.592601670437</v>
+      </c>
+      <c r="I4" t="n">
         <v>5067.592601670438</v>
       </c>
-      <c r="I4" t="n">
-        <v>5067.59260167043</v>
-      </c>
       <c r="J4" t="n">
-        <v>5067.592601670443</v>
+        <v>5067.592601670439</v>
       </c>
       <c r="K4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="L4" t="n">
+        <v>5067.592601670438</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5067.592601670437</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5067.59260167046</v>
+      </c>
+      <c r="O4" t="n">
         <v>5067.592601670443</v>
       </c>
-      <c r="M4" t="n">
-        <v>5067.592601670462</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>5067.592601670437</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5067.592601670452</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5067.592601670438</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340948</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-155479.9145744377</v>
+        <v>-155479.9145744374</v>
       </c>
       <c r="C6" t="n">
+        <v>434487.9646401066</v>
+      </c>
+      <c r="D6" t="n">
         <v>434487.9646401069</v>
       </c>
-      <c r="D6" t="n">
-        <v>434487.9646401066</v>
-      </c>
       <c r="E6" t="n">
-        <v>-344309.625454531</v>
+        <v>-344344.363379967</v>
       </c>
       <c r="F6" t="n">
-        <v>600063.1523031776</v>
+        <v>600028.4143777422</v>
       </c>
       <c r="G6" t="n">
-        <v>600063.1523031776</v>
+        <v>600028.4143777424</v>
       </c>
       <c r="H6" t="n">
-        <v>600063.152303178</v>
+        <v>600028.4143777423</v>
       </c>
       <c r="I6" t="n">
-        <v>600063.1523031779</v>
+        <v>600028.4143777424</v>
       </c>
       <c r="J6" t="n">
-        <v>423639.9331105847</v>
+        <v>423605.1951851489</v>
       </c>
       <c r="K6" t="n">
-        <v>600063.1523031781</v>
+        <v>600028.4143777422</v>
       </c>
       <c r="L6" t="n">
-        <v>600063.1523031777</v>
+        <v>600028.414377742</v>
       </c>
       <c r="M6" t="n">
-        <v>475854.6415951192</v>
+        <v>475819.903669684</v>
       </c>
       <c r="N6" t="n">
-        <v>600063.152303178</v>
+        <v>600028.4143777423</v>
       </c>
       <c r="O6" t="n">
-        <v>600063.1523031776</v>
+        <v>600028.4143777421</v>
       </c>
       <c r="P6" t="n">
-        <v>600063.1523031781</v>
+        <v>600028.4143777423</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170868</v>
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245872</v>
+        <v>990.2318361245869</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27433,16 +27433,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>123.3178507003648</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>60.02815772023342</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>59.57491680833758</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>69.58249272689008</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,7 +27619,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>290.5577376962871</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>294.5945811832545</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>115.1383805067651</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27825,19 +27825,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>35.43826180874007</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>144.3619051110309</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>68.08019533676952</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831821</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>118.6827785106054</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,7 +31282,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31291,34 +31291,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,40 +31355,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
@@ -31397,7 +31397,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>160.6314956130963</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,22 +32078,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>297.1808238847171</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963282</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33035,16 +33035,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33266,10 +33266,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>433.9798411722591</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>309.7666854143577</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>416.7024900153327</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>309.7666854143577</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,7 +33749,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,10 +33992,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>184.4971006716333</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34936,25 +34936,25 @@
         <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343415</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35182,7 +35182,7 @@
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530453</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396405</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>159.3393849103582</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.348781916454</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36613,10 +36613,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36683,16 +36683,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,10 +36914,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>291.8458072502408</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>171.2123056344834</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>285.3607779319995</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37324,7 +37324,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>171.2123056344834</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,7 +37397,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,10 +37640,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>57.65947400496659</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
